--- a/database/industries/methanol/shefan/product/quarterly_seprated.xlsx
+++ b/database/industries/methanol/shefan/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\shefan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shefan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AECC516-BA32-44CE-8CD9-8DBB50ADCDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8EF7EF-24AC-402E-BB37-DE1393AC1BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="54">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -645,16 +660,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I95"/>
+  <dimension ref="B1:N95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -663,8 +678,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -675,8 +695,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -687,8 +712,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -697,8 +727,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -709,8 +744,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -721,8 +761,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -731,8 +776,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -753,8 +803,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -763,10 +828,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -775,128 +845,208 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>4304</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="11">
+        <v>5067</v>
+      </c>
+      <c r="H11" s="11">
+        <v>3909</v>
+      </c>
+      <c r="I11" s="11">
+        <v>4295</v>
+      </c>
+      <c r="J11" s="11">
         <v>3761</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="K11" s="11">
+        <v>2522</v>
+      </c>
+      <c r="L11" s="11">
         <v>2204</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>3071</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>4276</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>48824</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="13">
+        <v>69910</v>
+      </c>
+      <c r="H12" s="13">
+        <v>50689</v>
+      </c>
+      <c r="I12" s="13">
+        <v>58709</v>
+      </c>
+      <c r="J12" s="13">
         <v>56836</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="K12" s="13">
+        <v>50746</v>
+      </c>
+      <c r="L12" s="13">
         <v>54310</v>
       </c>
-      <c r="H12" s="13">
+      <c r="M12" s="13">
         <v>58307</v>
       </c>
-      <c r="I12" s="13">
+      <c r="N12" s="13">
         <v>62038</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>25769</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="11">
+        <v>19469</v>
+      </c>
+      <c r="H13" s="11">
+        <v>18333</v>
+      </c>
+      <c r="I13" s="11">
+        <v>20982</v>
+      </c>
+      <c r="J13" s="11">
         <v>20157</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="K13" s="11">
+        <v>23011</v>
+      </c>
+      <c r="L13" s="11">
         <v>21614</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>25592</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>29583</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
+        <v>20811</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="13">
+        <v>12917</v>
+      </c>
+      <c r="H14" s="13">
+        <v>13765</v>
+      </c>
+      <c r="I14" s="13">
+        <v>11288</v>
+      </c>
+      <c r="J14" s="13">
         <v>4761</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="13">
+      <c r="K14" s="13">
+        <v>9072</v>
+      </c>
+      <c r="L14" s="13">
         <v>12338</v>
       </c>
-      <c r="H14" s="13">
+      <c r="M14" s="13">
         <v>9769</v>
       </c>
-      <c r="I14" s="13">
+      <c r="N14" s="13">
         <v>9506</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15">
+        <v>99708</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="15">
+        <v>107363</v>
+      </c>
+      <c r="H15" s="15">
+        <v>86696</v>
+      </c>
+      <c r="I15" s="15">
+        <v>95274</v>
+      </c>
+      <c r="J15" s="15">
         <v>85515</v>
       </c>
-      <c r="F15" s="15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="15">
+      <c r="K15" s="15">
+        <v>85351</v>
+      </c>
+      <c r="L15" s="15">
         <v>90466</v>
       </c>
-      <c r="H15" s="15">
+      <c r="M15" s="15">
         <v>96739</v>
       </c>
-      <c r="I15" s="15">
+      <c r="N15" s="15">
         <v>105403</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -905,80 +1055,130 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
+        <v>199586</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="11">
+        <v>142848</v>
+      </c>
+      <c r="H17" s="11">
+        <v>113695</v>
+      </c>
+      <c r="I17" s="11">
+        <v>164042</v>
+      </c>
+      <c r="J17" s="11">
         <v>171867</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="11">
+      <c r="K17" s="11">
+        <v>158167</v>
+      </c>
+      <c r="L17" s="11">
         <v>141556</v>
       </c>
-      <c r="H17" s="11">
+      <c r="M17" s="11">
         <v>229957</v>
       </c>
-      <c r="I17" s="11">
+      <c r="N17" s="11">
         <v>71291</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
+        <v>12343</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="13">
+        <v>22010</v>
+      </c>
+      <c r="H18" s="13">
+        <v>17164</v>
+      </c>
+      <c r="I18" s="13">
+        <v>13714</v>
+      </c>
+      <c r="J18" s="13">
         <v>14742</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="13">
+      <c r="K18" s="13">
+        <v>11281</v>
+      </c>
+      <c r="L18" s="13">
         <v>8156</v>
       </c>
-      <c r="H18" s="13">
+      <c r="M18" s="13">
         <v>1228</v>
       </c>
-      <c r="I18" s="13">
+      <c r="N18" s="13">
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15">
+        <v>211929</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15">
+        <v>164858</v>
+      </c>
+      <c r="H19" s="15">
+        <v>130859</v>
+      </c>
+      <c r="I19" s="15">
+        <v>177756</v>
+      </c>
+      <c r="J19" s="15">
         <v>186609</v>
       </c>
-      <c r="F19" s="15">
-        <v>0</v>
-      </c>
-      <c r="G19" s="15">
+      <c r="K19" s="15">
+        <v>169448</v>
+      </c>
+      <c r="L19" s="15">
         <v>149712</v>
       </c>
-      <c r="H19" s="15">
+      <c r="M19" s="15">
         <v>231185</v>
       </c>
-      <c r="I19" s="15">
+      <c r="N19" s="15">
         <v>71462</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -987,10 +1187,15 @@
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -1009,34 +1214,64 @@
       <c r="I21" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="15">
+        <v>0</v>
+      </c>
+      <c r="K21" s="15">
+        <v>0</v>
+      </c>
+      <c r="L21" s="15">
+        <v>0</v>
+      </c>
+      <c r="M21" s="15">
+        <v>0</v>
+      </c>
+      <c r="N21" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D22" s="19"/>
-      <c r="E22" s="19" t="s">
-        <v>13</v>
+      <c r="E22" s="19">
+        <v>0</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="G22" s="19">
+        <v>0</v>
+      </c>
+      <c r="H22" s="19">
+        <v>0</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -1044,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G23" s="15">
         <v>0</v>
@@ -1055,30 +1290,60 @@
       <c r="I23" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="15">
+        <v>0</v>
+      </c>
+      <c r="K23" s="15">
+        <v>0</v>
+      </c>
+      <c r="L23" s="15">
+        <v>0</v>
+      </c>
+      <c r="M23" s="15">
+        <v>0</v>
+      </c>
+      <c r="N23" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19">
+        <v>311637</v>
+      </c>
+      <c r="F24" s="19">
+        <v>0</v>
+      </c>
+      <c r="G24" s="19">
+        <v>272221</v>
+      </c>
+      <c r="H24" s="19">
+        <v>217555</v>
+      </c>
+      <c r="I24" s="19">
+        <v>273030</v>
+      </c>
+      <c r="J24" s="19">
         <v>272124</v>
       </c>
-      <c r="F24" s="19">
-        <v>0</v>
-      </c>
-      <c r="G24" s="19">
+      <c r="K24" s="19">
+        <v>254799</v>
+      </c>
+      <c r="L24" s="19">
         <v>240178</v>
       </c>
-      <c r="H24" s="19">
+      <c r="M24" s="19">
         <v>327924</v>
       </c>
-      <c r="I24" s="19">
+      <c r="N24" s="19">
         <v>176865</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1087,8 +1352,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1097,8 +1367,13 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1107,10 +1382,15 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1129,8 +1409,23 @@
       <c r="I28" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1139,10 +1434,15 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -1151,128 +1451,208 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
+        <v>111921</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="11">
+        <v>170582</v>
+      </c>
+      <c r="H31" s="11">
+        <v>100805</v>
+      </c>
+      <c r="I31" s="11">
+        <v>235774</v>
+      </c>
+      <c r="J31" s="11">
         <v>114425</v>
       </c>
-      <c r="F31" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="11">
+      <c r="K31" s="11">
+        <v>602825</v>
+      </c>
+      <c r="L31" s="11">
         <v>147093</v>
       </c>
-      <c r="H31" s="11">
+      <c r="M31" s="11">
         <v>623396</v>
       </c>
-      <c r="I31" s="11">
+      <c r="N31" s="11">
         <v>375916</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
+        <v>1461598</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="13">
+        <v>5111165</v>
+      </c>
+      <c r="H32" s="13">
+        <v>3199045</v>
+      </c>
+      <c r="I32" s="13">
+        <v>4271800</v>
+      </c>
+      <c r="J32" s="13">
         <v>5086227</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="13">
+      <c r="K32" s="13">
+        <v>4222304</v>
+      </c>
+      <c r="L32" s="13">
         <v>4463734</v>
       </c>
-      <c r="H32" s="13">
+      <c r="M32" s="13">
         <v>4165785</v>
       </c>
-      <c r="I32" s="13">
+      <c r="N32" s="13">
         <v>4577268</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
+        <v>1666780</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="11">
+        <v>2854606</v>
+      </c>
+      <c r="H33" s="11">
+        <v>4016647</v>
+      </c>
+      <c r="I33" s="11">
+        <v>4242577</v>
+      </c>
+      <c r="J33" s="11">
         <v>4790980</v>
       </c>
-      <c r="F33" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="11">
+      <c r="K33" s="11">
+        <v>4438421</v>
+      </c>
+      <c r="L33" s="11">
         <v>3377896</v>
       </c>
-      <c r="H33" s="11">
+      <c r="M33" s="11">
         <v>3538197</v>
       </c>
-      <c r="I33" s="11">
+      <c r="N33" s="11">
         <v>3319244</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
+        <v>107545</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="13">
+        <v>91228</v>
+      </c>
+      <c r="H34" s="13">
+        <v>91777</v>
+      </c>
+      <c r="I34" s="13">
+        <v>80714</v>
+      </c>
+      <c r="J34" s="13">
         <v>59014</v>
       </c>
-      <c r="F34" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="13">
+      <c r="K34" s="13">
+        <v>116749</v>
+      </c>
+      <c r="L34" s="13">
         <v>85883</v>
       </c>
-      <c r="H34" s="13">
+      <c r="M34" s="13">
         <v>85031</v>
       </c>
-      <c r="I34" s="13">
+      <c r="N34" s="13">
         <v>87804</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15">
+        <v>3347844</v>
+      </c>
+      <c r="F35" s="15">
+        <v>0</v>
+      </c>
+      <c r="G35" s="15">
+        <v>8227581</v>
+      </c>
+      <c r="H35" s="15">
+        <v>7408274</v>
+      </c>
+      <c r="I35" s="15">
+        <v>8830865</v>
+      </c>
+      <c r="J35" s="15">
         <v>10050646</v>
       </c>
-      <c r="F35" s="15">
-        <v>0</v>
-      </c>
-      <c r="G35" s="15">
+      <c r="K35" s="15">
+        <v>9380299</v>
+      </c>
+      <c r="L35" s="15">
         <v>8074606</v>
       </c>
-      <c r="H35" s="15">
+      <c r="M35" s="15">
         <v>8412409</v>
       </c>
-      <c r="I35" s="15">
+      <c r="N35" s="15">
         <v>8360232</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -1281,80 +1661,130 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
+        <v>6466428</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="11">
+        <v>10683418</v>
+      </c>
+      <c r="H37" s="11">
+        <v>7902152</v>
+      </c>
+      <c r="I37" s="11">
+        <v>11661422</v>
+      </c>
+      <c r="J37" s="11">
         <v>15046895</v>
       </c>
-      <c r="F37" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="11">
+      <c r="K37" s="11">
+        <v>12701879</v>
+      </c>
+      <c r="L37" s="11">
         <v>11785846</v>
       </c>
-      <c r="H37" s="11">
+      <c r="M37" s="11">
         <v>15803095</v>
       </c>
-      <c r="I37" s="11">
+      <c r="N37" s="11">
         <v>5863967</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13">
+        <v>444281</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="13">
+        <v>3089892</v>
+      </c>
+      <c r="H38" s="13">
+        <v>3005658</v>
+      </c>
+      <c r="I38" s="13">
+        <v>2556644</v>
+      </c>
+      <c r="J38" s="13">
         <v>3475182</v>
       </c>
-      <c r="F38" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="13">
+      <c r="K38" s="13">
+        <v>1978773</v>
+      </c>
+      <c r="L38" s="13">
         <v>1165182</v>
       </c>
-      <c r="H38" s="13">
+      <c r="M38" s="13">
         <v>217639</v>
       </c>
-      <c r="I38" s="13">
+      <c r="N38" s="13">
         <v>38059</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
+        <v>6910709</v>
+      </c>
+      <c r="F39" s="15">
+        <v>0</v>
+      </c>
+      <c r="G39" s="15">
+        <v>13773310</v>
+      </c>
+      <c r="H39" s="15">
+        <v>10907810</v>
+      </c>
+      <c r="I39" s="15">
+        <v>14218066</v>
+      </c>
+      <c r="J39" s="15">
         <v>18522077</v>
       </c>
-      <c r="F39" s="15">
-        <v>0</v>
-      </c>
-      <c r="G39" s="15">
+      <c r="K39" s="15">
+        <v>14680652</v>
+      </c>
+      <c r="L39" s="15">
         <v>12951028</v>
       </c>
-      <c r="H39" s="15">
+      <c r="M39" s="15">
         <v>16020734</v>
       </c>
-      <c r="I39" s="15">
+      <c r="N39" s="15">
         <v>5902026</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
@@ -1363,10 +1793,15 @@
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
@@ -1385,44 +1820,74 @@
       <c r="I41" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="15">
+        <v>0</v>
+      </c>
+      <c r="K41" s="15">
+        <v>0</v>
+      </c>
+      <c r="L41" s="15">
+        <v>0</v>
+      </c>
+      <c r="M41" s="15">
+        <v>0</v>
+      </c>
+      <c r="N41" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D42" s="19"/>
-      <c r="E42" s="19" t="s">
-        <v>13</v>
+      <c r="E42" s="19">
+        <v>0</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="G42" s="19">
+        <v>0</v>
+      </c>
+      <c r="H42" s="19">
+        <v>0</v>
       </c>
       <c r="I42" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M42" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N42" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D43" s="15"/>
       <c r="E43" s="15">
         <v>0</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G43" s="15">
         <v>0</v>
@@ -1433,30 +1898,60 @@
       <c r="I43" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="15">
+        <v>0</v>
+      </c>
+      <c r="K43" s="15">
+        <v>0</v>
+      </c>
+      <c r="L43" s="15">
+        <v>0</v>
+      </c>
+      <c r="M43" s="15">
+        <v>0</v>
+      </c>
+      <c r="N43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19">
+        <v>10258553</v>
+      </c>
+      <c r="F44" s="19">
+        <v>0</v>
+      </c>
+      <c r="G44" s="19">
+        <v>22000891</v>
+      </c>
+      <c r="H44" s="19">
+        <v>18316084</v>
+      </c>
+      <c r="I44" s="19">
+        <v>23048931</v>
+      </c>
+      <c r="J44" s="19">
         <v>28572723</v>
       </c>
-      <c r="F44" s="19">
-        <v>0</v>
-      </c>
-      <c r="G44" s="19">
+      <c r="K44" s="19">
+        <v>24060951</v>
+      </c>
+      <c r="L44" s="19">
         <v>21025634</v>
       </c>
-      <c r="H44" s="19">
+      <c r="M44" s="19">
         <v>24433143</v>
       </c>
-      <c r="I44" s="19">
+      <c r="N44" s="19">
         <v>14262258</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1465,8 +1960,13 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1475,8 +1975,13 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1485,10 +1990,15 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -1507,8 +2017,23 @@
       <c r="I48" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1517,10 +2042,15 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -1529,106 +2059,171 @@
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
+        <v>26003950</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="11">
+        <v>33665285</v>
+      </c>
+      <c r="H51" s="11">
+        <v>25787925</v>
+      </c>
+      <c r="I51" s="11">
+        <v>54894994</v>
+      </c>
+      <c r="J51" s="11">
         <v>30424089</v>
       </c>
-      <c r="F51" s="11">
+      <c r="K51" s="11">
         <v>239026566</v>
       </c>
-      <c r="G51" s="11">
+      <c r="L51" s="11">
         <v>66739111</v>
       </c>
-      <c r="H51" s="11">
+      <c r="M51" s="11">
         <v>202994464</v>
       </c>
-      <c r="I51" s="11">
+      <c r="N51" s="11">
         <v>87913003</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13">
+        <v>29936056</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="13">
+        <v>73110642</v>
+      </c>
+      <c r="H52" s="13">
+        <v>63111227</v>
+      </c>
+      <c r="I52" s="13">
+        <v>72762268</v>
+      </c>
+      <c r="J52" s="13">
         <v>89489531</v>
       </c>
-      <c r="F52" s="13">
+      <c r="K52" s="13">
         <v>83204666</v>
       </c>
-      <c r="G52" s="13">
+      <c r="L52" s="13">
         <v>82189910</v>
       </c>
-      <c r="H52" s="13">
+      <c r="M52" s="13">
         <v>71445710</v>
       </c>
-      <c r="I52" s="13">
+      <c r="N52" s="13">
         <v>73781682</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
+        <v>64681594</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="11">
+        <v>146623144</v>
+      </c>
+      <c r="H53" s="11">
+        <v>219093820</v>
+      </c>
+      <c r="I53" s="11">
+        <v>202200791</v>
+      </c>
+      <c r="J53" s="11">
         <v>237683187</v>
       </c>
-      <c r="F53" s="11">
+      <c r="K53" s="11">
         <v>192882578</v>
       </c>
-      <c r="G53" s="11">
+      <c r="L53" s="11">
         <v>156282780</v>
       </c>
-      <c r="H53" s="11">
+      <c r="M53" s="11">
         <v>138254025</v>
       </c>
-      <c r="I53" s="11">
+      <c r="N53" s="11">
         <v>112201061</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13">
+        <v>5167700</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="13">
+        <v>7062631</v>
+      </c>
+      <c r="H54" s="13">
+        <v>6667417</v>
+      </c>
+      <c r="I54" s="13">
+        <v>7150425</v>
+      </c>
+      <c r="J54" s="13">
         <v>12395295</v>
       </c>
-      <c r="F54" s="13">
+      <c r="K54" s="13">
         <v>12869158</v>
       </c>
-      <c r="G54" s="13">
+      <c r="L54" s="13">
         <v>6960853</v>
       </c>
-      <c r="H54" s="13">
+      <c r="M54" s="13">
         <v>8704166</v>
       </c>
-      <c r="I54" s="13">
+      <c r="N54" s="13">
         <v>9236693</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -1637,56 +2232,91 @@
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
+        <v>32399206</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="11">
+        <v>74788712</v>
+      </c>
+      <c r="H56" s="11">
+        <v>69503074</v>
+      </c>
+      <c r="I56" s="11">
+        <v>71088026</v>
+      </c>
+      <c r="J56" s="11">
         <v>87549646</v>
       </c>
-      <c r="F56" s="11">
+      <c r="K56" s="11">
         <v>80306758</v>
       </c>
-      <c r="G56" s="11">
+      <c r="L56" s="11">
         <v>83259247</v>
       </c>
-      <c r="H56" s="11">
+      <c r="M56" s="11">
         <v>68721957</v>
       </c>
-      <c r="I56" s="11">
+      <c r="N56" s="11">
         <v>82253959</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13">
+        <v>35994572</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="13">
+        <v>140385825</v>
+      </c>
+      <c r="H57" s="13">
+        <v>175114076</v>
+      </c>
+      <c r="I57" s="13">
+        <v>186425842</v>
+      </c>
+      <c r="J57" s="13">
         <v>235733415</v>
       </c>
-      <c r="F57" s="13">
+      <c r="K57" s="13">
         <v>175407588</v>
       </c>
-      <c r="G57" s="13">
+      <c r="L57" s="13">
         <v>142861942</v>
       </c>
-      <c r="H57" s="13">
+      <c r="M57" s="13">
         <v>177230456</v>
       </c>
-      <c r="I57" s="13">
+      <c r="N57" s="13">
         <v>222567251</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1695,8 +2325,13 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1705,8 +2340,13 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1715,10 +2355,15 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -1737,8 +2382,23 @@
       <c r="I61" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1747,10 +2407,15 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -1759,128 +2424,208 @@
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>-291903</v>
-      </c>
-      <c r="F64" s="11">
+        <v>-64257</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="11">
+        <v>-456677</v>
+      </c>
+      <c r="H64" s="11">
+        <v>-151207</v>
+      </c>
+      <c r="I64" s="11">
+        <v>-195713</v>
+      </c>
+      <c r="J64" s="11">
+        <v>-638823</v>
+      </c>
+      <c r="K64" s="11">
         <v>-380047</v>
       </c>
-      <c r="G64" s="11">
+      <c r="L64" s="11">
         <v>-209529</v>
       </c>
-      <c r="H64" s="11">
+      <c r="M64" s="11">
         <v>-227038</v>
       </c>
-      <c r="I64" s="11">
+      <c r="N64" s="11">
         <v>-314558</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>-3298242</v>
-      </c>
-      <c r="F65" s="13">
+        <v>-589280</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" s="13">
+        <v>-4508767</v>
+      </c>
+      <c r="H65" s="13">
+        <v>-1106475</v>
+      </c>
+      <c r="I65" s="13">
+        <v>-2066417</v>
+      </c>
+      <c r="J65" s="13">
+        <v>-6471134</v>
+      </c>
+      <c r="K65" s="13">
         <v>-5097449</v>
       </c>
-      <c r="G65" s="13">
+      <c r="L65" s="13">
         <v>-2935620</v>
       </c>
-      <c r="H65" s="13">
+      <c r="M65" s="13">
         <v>-3654622</v>
       </c>
-      <c r="I65" s="13">
+      <c r="N65" s="13">
         <v>-3068620</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
-        <v>-2043853</v>
-      </c>
-      <c r="F66" s="11">
+        <v>-586086</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="11">
+        <v>-2962374</v>
+      </c>
+      <c r="H66" s="11">
+        <v>-1009329</v>
+      </c>
+      <c r="I66" s="11">
+        <v>-1262852</v>
+      </c>
+      <c r="J66" s="11">
+        <v>-4316034</v>
+      </c>
+      <c r="K66" s="11">
         <v>-3707563</v>
       </c>
-      <c r="G66" s="11">
+      <c r="L66" s="11">
         <v>-2518740</v>
       </c>
-      <c r="H66" s="11">
+      <c r="M66" s="11">
         <v>-3176440</v>
       </c>
-      <c r="I66" s="11">
+      <c r="N66" s="11">
         <v>-3500857</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="13">
-        <v>-35335</v>
-      </c>
-      <c r="F67" s="13">
+        <v>-64792</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" s="13">
+        <v>-241955</v>
+      </c>
+      <c r="H67" s="13">
+        <v>-47710</v>
+      </c>
+      <c r="I67" s="13">
+        <v>-44629</v>
+      </c>
+      <c r="J67" s="13">
+        <v>-127674</v>
+      </c>
+      <c r="K67" s="13">
         <v>-121320</v>
       </c>
-      <c r="G67" s="13">
+      <c r="L67" s="13">
         <v>-57483</v>
       </c>
-      <c r="H67" s="13">
+      <c r="M67" s="13">
         <v>-70298</v>
       </c>
-      <c r="I67" s="13">
+      <c r="N67" s="13">
         <v>-67580</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="14" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
       <c r="E68" s="15">
-        <v>-5669333</v>
+        <v>-1304415</v>
       </c>
       <c r="F68" s="15">
+        <v>0</v>
+      </c>
+      <c r="G68" s="15">
+        <v>-8169773</v>
+      </c>
+      <c r="H68" s="15">
+        <v>-2314721</v>
+      </c>
+      <c r="I68" s="15">
+        <v>-3569611</v>
+      </c>
+      <c r="J68" s="15">
+        <v>-11553665</v>
+      </c>
+      <c r="K68" s="15">
         <v>-9306379</v>
       </c>
-      <c r="G68" s="15">
+      <c r="L68" s="15">
         <v>-5721372</v>
       </c>
-      <c r="H68" s="15">
+      <c r="M68" s="15">
         <v>-7128398</v>
       </c>
-      <c r="I68" s="15">
+      <c r="N68" s="15">
         <v>-6951615</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -1889,80 +2634,130 @@
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
-        <v>-9446957</v>
-      </c>
-      <c r="F70" s="11">
+        <v>-2293609</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="11">
+        <v>-12948749</v>
+      </c>
+      <c r="H70" s="11">
+        <v>-2481799</v>
+      </c>
+      <c r="I70" s="11">
+        <v>-5573435</v>
+      </c>
+      <c r="J70" s="11">
+        <v>-17502191</v>
+      </c>
+      <c r="K70" s="11">
         <v>-14901850</v>
       </c>
-      <c r="G70" s="11">
+      <c r="L70" s="11">
         <v>-7651525</v>
       </c>
-      <c r="H70" s="11">
+      <c r="M70" s="11">
         <v>-14089026</v>
       </c>
-      <c r="I70" s="11">
+      <c r="N70" s="11">
         <v>-2747588</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="13">
-        <v>-1526178</v>
-      </c>
-      <c r="F71" s="13">
+        <v>-281918</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" s="13">
+        <v>-2701877</v>
+      </c>
+      <c r="H71" s="13">
+        <v>-944983</v>
+      </c>
+      <c r="I71" s="13">
+        <v>-839609</v>
+      </c>
+      <c r="J71" s="13">
+        <v>-3310770</v>
+      </c>
+      <c r="K71" s="13">
         <v>-2224330</v>
       </c>
-      <c r="G71" s="13">
+      <c r="L71" s="13">
         <v>-950479</v>
       </c>
-      <c r="H71" s="13">
+      <c r="M71" s="13">
         <v>-181711</v>
       </c>
-      <c r="I71" s="13">
+      <c r="N71" s="13">
         <v>-12084</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="14" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15">
-        <v>-10973135</v>
+        <v>-2575527</v>
       </c>
       <c r="F72" s="15">
+        <v>0</v>
+      </c>
+      <c r="G72" s="15">
+        <v>-15650626</v>
+      </c>
+      <c r="H72" s="15">
+        <v>-3426782</v>
+      </c>
+      <c r="I72" s="15">
+        <v>-6413044</v>
+      </c>
+      <c r="J72" s="15">
+        <v>-20812961</v>
+      </c>
+      <c r="K72" s="15">
         <v>-17126180</v>
       </c>
-      <c r="G72" s="15">
+      <c r="L72" s="15">
         <v>-8602004</v>
       </c>
-      <c r="H72" s="15">
+      <c r="M72" s="15">
         <v>-14270737</v>
       </c>
-      <c r="I72" s="15">
+      <c r="N72" s="15">
         <v>-2759672</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
@@ -1971,10 +2766,15 @@
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="14" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
@@ -1993,44 +2793,74 @@
       <c r="I74" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="15">
+        <v>0</v>
+      </c>
+      <c r="K74" s="15">
+        <v>0</v>
+      </c>
+      <c r="L74" s="15">
+        <v>0</v>
+      </c>
+      <c r="M74" s="15">
+        <v>0</v>
+      </c>
+      <c r="N74" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D75" s="19"/>
-      <c r="E75" s="19" t="s">
-        <v>13</v>
+      <c r="E75" s="19">
+        <v>0</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="G75" s="19">
+        <v>0</v>
+      </c>
+      <c r="H75" s="19">
+        <v>0</v>
       </c>
       <c r="I75" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J75" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K75" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L75" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M75" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N75" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D76" s="15"/>
       <c r="E76" s="15">
         <v>0</v>
       </c>
-      <c r="F76" s="15">
-        <v>0</v>
+      <c r="F76" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="G76" s="15">
         <v>0</v>
@@ -2041,30 +2871,60 @@
       <c r="I76" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="15">
+        <v>0</v>
+      </c>
+      <c r="K76" s="15">
+        <v>0</v>
+      </c>
+      <c r="L76" s="15">
+        <v>0</v>
+      </c>
+      <c r="M76" s="15">
+        <v>0</v>
+      </c>
+      <c r="N76" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C77" s="19"/>
       <c r="D77" s="19"/>
       <c r="E77" s="19">
-        <v>-16642468</v>
+        <v>-3879942</v>
       </c>
       <c r="F77" s="19">
+        <v>0</v>
+      </c>
+      <c r="G77" s="19">
+        <v>-23820399</v>
+      </c>
+      <c r="H77" s="19">
+        <v>-5741503</v>
+      </c>
+      <c r="I77" s="19">
+        <v>-9982655</v>
+      </c>
+      <c r="J77" s="19">
+        <v>-32366626</v>
+      </c>
+      <c r="K77" s="19">
         <v>-26432559</v>
       </c>
-      <c r="G77" s="19">
+      <c r="L77" s="19">
         <v>-14323376</v>
       </c>
-      <c r="H77" s="19">
+      <c r="M77" s="19">
         <v>-21399135</v>
       </c>
-      <c r="I77" s="19">
+      <c r="N77" s="19">
         <v>-9711287</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2073,8 +2933,13 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2083,8 +2948,13 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2093,10 +2963,15 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -2115,8 +2990,23 @@
       <c r="I81" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M81" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2125,10 +3015,15 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -2137,128 +3032,208 @@
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>-177478</v>
-      </c>
-      <c r="F84" s="11">
+        <v>47664</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G84" s="11">
+        <v>37813</v>
+      </c>
+      <c r="H84" s="11">
+        <v>-50402</v>
+      </c>
+      <c r="I84" s="11">
+        <v>40061</v>
+      </c>
+      <c r="J84" s="11">
+        <v>-187819</v>
+      </c>
+      <c r="K84" s="11">
         <v>222778</v>
       </c>
-      <c r="G84" s="11">
+      <c r="L84" s="11">
         <v>-62436</v>
       </c>
-      <c r="H84" s="11">
+      <c r="M84" s="11">
         <v>396358</v>
       </c>
-      <c r="I84" s="11">
+      <c r="N84" s="11">
         <v>61358</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="13">
-        <v>1787985</v>
-      </c>
-      <c r="F85" s="13">
+        <v>872318</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85" s="13">
+        <v>6349285</v>
+      </c>
+      <c r="H85" s="13">
+        <v>2092570</v>
+      </c>
+      <c r="I85" s="13">
+        <v>2205383</v>
+      </c>
+      <c r="J85" s="13">
+        <v>6085938</v>
+      </c>
+      <c r="K85" s="13">
         <v>-875145</v>
       </c>
-      <c r="G85" s="13">
+      <c r="L85" s="13">
         <v>1528114</v>
       </c>
-      <c r="H85" s="13">
+      <c r="M85" s="13">
         <v>511163</v>
       </c>
-      <c r="I85" s="13">
+      <c r="N85" s="13">
         <v>1508648</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
-        <v>2747127</v>
-      </c>
-      <c r="F86" s="11">
+        <v>1080694</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86" s="11">
+        <v>4210575</v>
+      </c>
+      <c r="H86" s="11">
+        <v>3007318</v>
+      </c>
+      <c r="I86" s="11">
+        <v>2979725</v>
+      </c>
+      <c r="J86" s="11">
+        <v>8734170</v>
+      </c>
+      <c r="K86" s="11">
         <v>730858</v>
       </c>
-      <c r="G86" s="11">
+      <c r="L86" s="11">
         <v>859156</v>
       </c>
-      <c r="H86" s="11">
+      <c r="M86" s="11">
         <v>361757</v>
       </c>
-      <c r="I86" s="11">
+      <c r="N86" s="11">
         <v>-181613</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="13">
-        <v>23679</v>
-      </c>
-      <c r="F87" s="13">
+        <v>42753</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G87" s="13">
+        <v>151498</v>
+      </c>
+      <c r="H87" s="13">
+        <v>44067</v>
+      </c>
+      <c r="I87" s="13">
+        <v>36085</v>
+      </c>
+      <c r="J87" s="13">
+        <v>103831</v>
+      </c>
+      <c r="K87" s="13">
         <v>-4571</v>
       </c>
-      <c r="G87" s="13">
+      <c r="L87" s="13">
         <v>28400</v>
       </c>
-      <c r="H87" s="13">
+      <c r="M87" s="13">
         <v>14733</v>
       </c>
-      <c r="I87" s="13">
+      <c r="N87" s="13">
         <v>20224</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C88" s="15"/>
       <c r="D88" s="15"/>
       <c r="E88" s="15">
-        <v>4381313</v>
+        <v>2043429</v>
       </c>
       <c r="F88" s="15">
+        <v>0</v>
+      </c>
+      <c r="G88" s="15">
+        <v>10749171</v>
+      </c>
+      <c r="H88" s="15">
+        <v>5093553</v>
+      </c>
+      <c r="I88" s="15">
+        <v>5261254</v>
+      </c>
+      <c r="J88" s="15">
+        <v>14736120</v>
+      </c>
+      <c r="K88" s="15">
         <v>73920</v>
       </c>
-      <c r="G88" s="15">
+      <c r="L88" s="15">
         <v>2353234</v>
       </c>
-      <c r="H88" s="15">
+      <c r="M88" s="15">
         <v>1284011</v>
       </c>
-      <c r="I88" s="15">
+      <c r="N88" s="15">
         <v>1408617</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -2267,80 +3242,130 @@
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
-        <v>5599938</v>
-      </c>
-      <c r="F90" s="11">
+        <v>4172819</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G90" s="11">
+        <v>17936142</v>
+      </c>
+      <c r="H90" s="11">
+        <v>5420353</v>
+      </c>
+      <c r="I90" s="11">
+        <v>6087987</v>
+      </c>
+      <c r="J90" s="11">
+        <v>17108278</v>
+      </c>
+      <c r="K90" s="11">
         <v>-2199971</v>
       </c>
-      <c r="G90" s="11">
+      <c r="L90" s="11">
         <v>4134321</v>
       </c>
-      <c r="H90" s="11">
+      <c r="M90" s="11">
         <v>1714069</v>
       </c>
-      <c r="I90" s="11">
+      <c r="N90" s="11">
         <v>3116379</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="13">
-        <v>1949004</v>
-      </c>
-      <c r="F91" s="13">
+        <v>162363</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G91" s="13">
+        <v>2704229</v>
+      </c>
+      <c r="H91" s="13">
+        <v>2060675</v>
+      </c>
+      <c r="I91" s="13">
+        <v>1717035</v>
+      </c>
+      <c r="J91" s="13">
+        <v>5726714</v>
+      </c>
+      <c r="K91" s="13">
         <v>-245557</v>
       </c>
-      <c r="G91" s="13">
+      <c r="L91" s="13">
         <v>214703</v>
       </c>
-      <c r="H91" s="13">
+      <c r="M91" s="13">
         <v>35928</v>
       </c>
-      <c r="I91" s="13">
+      <c r="N91" s="13">
         <v>25975</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15">
-        <v>7548942</v>
+        <v>4335182</v>
       </c>
       <c r="F92" s="15">
+        <v>0</v>
+      </c>
+      <c r="G92" s="15">
+        <v>20640371</v>
+      </c>
+      <c r="H92" s="15">
+        <v>7481028</v>
+      </c>
+      <c r="I92" s="15">
+        <v>7805022</v>
+      </c>
+      <c r="J92" s="15">
+        <v>22834992</v>
+      </c>
+      <c r="K92" s="15">
         <v>-2445528</v>
       </c>
-      <c r="G92" s="15">
+      <c r="L92" s="15">
         <v>4349024</v>
       </c>
-      <c r="H92" s="15">
+      <c r="M92" s="15">
         <v>1749997</v>
       </c>
-      <c r="I92" s="15">
+      <c r="N92" s="15">
         <v>3142354</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
@@ -2349,10 +3374,15 @@
       <c r="G93" s="17"/>
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C94" s="15"/>
       <c r="D94" s="15"/>
@@ -2371,26 +3401,56 @@
       <c r="I94" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="15">
+        <v>0</v>
+      </c>
+      <c r="K94" s="15">
+        <v>0</v>
+      </c>
+      <c r="L94" s="15">
+        <v>0</v>
+      </c>
+      <c r="M94" s="15">
+        <v>0</v>
+      </c>
+      <c r="N94" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C95" s="19"/>
       <c r="D95" s="19"/>
       <c r="E95" s="19">
-        <v>11930255</v>
+        <v>6378611</v>
       </c>
       <c r="F95" s="19">
+        <v>0</v>
+      </c>
+      <c r="G95" s="19">
+        <v>31389542</v>
+      </c>
+      <c r="H95" s="19">
+        <v>12574581</v>
+      </c>
+      <c r="I95" s="19">
+        <v>13066276</v>
+      </c>
+      <c r="J95" s="19">
+        <v>37571112</v>
+      </c>
+      <c r="K95" s="19">
         <v>-2371608</v>
       </c>
-      <c r="G95" s="19">
+      <c r="L95" s="19">
         <v>6702258</v>
       </c>
-      <c r="H95" s="19">
+      <c r="M95" s="19">
         <v>3034008</v>
       </c>
-      <c r="I95" s="19">
+      <c r="N95" s="19">
         <v>4550971</v>
       </c>
     </row>

--- a/database/industries/methanol/shefan/product/quarterly_seprated.xlsx
+++ b/database/industries/methanol/shefan/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shefan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shefan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8EF7EF-24AC-402E-BB37-DE1393AC1BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B671AD-BFF6-416E-8B12-8DECFE5569A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="54">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مقدار فروش داخلی</t>
   </si>
   <si>
@@ -76,37 +76,37 @@
     <t>تن</t>
   </si>
   <si>
+    <t>متانول</t>
+  </si>
+  <si>
+    <t>اسید استیک</t>
+  </si>
+  <si>
+    <t>محصولات فرعی</t>
+  </si>
+  <si>
+    <t>جمع فروش داخلی</t>
+  </si>
+  <si>
+    <t>مقدار فروش خارجی</t>
+  </si>
+  <si>
+    <t>جمع فروش خارجی</t>
+  </si>
+  <si>
+    <t>مقدار فروش درآمد ارائه خدمات</t>
+  </si>
+  <si>
+    <t>جمع فروش خدمات</t>
+  </si>
+  <si>
+    <t>برگشت از فروش</t>
+  </si>
+  <si>
+    <t>ریال</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>متانول</t>
-  </si>
-  <si>
-    <t>اسید استیک</t>
-  </si>
-  <si>
-    <t>محصولات فرعی</t>
-  </si>
-  <si>
-    <t>جمع فروش داخلی</t>
-  </si>
-  <si>
-    <t>مقدار فروش خارجی</t>
-  </si>
-  <si>
-    <t>جمع فروش خارجی</t>
-  </si>
-  <si>
-    <t>مقدار فروش درآمد ارائه خدمات</t>
-  </si>
-  <si>
-    <t>جمع فروش خدمات</t>
-  </si>
-  <si>
-    <t>برگشت از فروش</t>
-  </si>
-  <si>
-    <t>ریال</t>
   </si>
   <si>
     <t>سایر / تخفیفات</t>
@@ -664,12 +664,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -684,7 +684,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -701,7 +701,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -718,7 +718,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -733,7 +733,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -750,7 +750,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -767,7 +767,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -782,7 +782,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -819,7 +819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -834,7 +834,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -851,7 +851,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -860,193 +860,193 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>4304</v>
-      </c>
-      <c r="F11" s="11" t="s">
+        <v>4490</v>
+      </c>
+      <c r="F11" s="11">
+        <v>5067</v>
+      </c>
+      <c r="G11" s="11">
+        <v>3909</v>
+      </c>
+      <c r="H11" s="11">
+        <v>4295</v>
+      </c>
+      <c r="I11" s="11">
+        <v>3761</v>
+      </c>
+      <c r="J11" s="11">
+        <v>2522</v>
+      </c>
+      <c r="K11" s="11">
+        <v>2204</v>
+      </c>
+      <c r="L11" s="11">
+        <v>3071</v>
+      </c>
+      <c r="M11" s="11">
+        <v>4276</v>
+      </c>
+      <c r="N11" s="11">
+        <v>4092</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
         <v>18</v>
-      </c>
-      <c r="G11" s="11">
-        <v>5067</v>
-      </c>
-      <c r="H11" s="11">
-        <v>3909</v>
-      </c>
-      <c r="I11" s="11">
-        <v>4295</v>
-      </c>
-      <c r="J11" s="11">
-        <v>3761</v>
-      </c>
-      <c r="K11" s="11">
-        <v>2522</v>
-      </c>
-      <c r="L11" s="11">
-        <v>2204</v>
-      </c>
-      <c r="M11" s="11">
-        <v>3071</v>
-      </c>
-      <c r="N11" s="11">
-        <v>4276</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>48824</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>18</v>
+        <v>53872</v>
+      </c>
+      <c r="F12" s="13">
+        <v>69910</v>
       </c>
       <c r="G12" s="13">
-        <v>69910</v>
+        <v>50689</v>
       </c>
       <c r="H12" s="13">
-        <v>50689</v>
+        <v>58709</v>
       </c>
       <c r="I12" s="13">
-        <v>58709</v>
+        <v>56836</v>
       </c>
       <c r="J12" s="13">
-        <v>56836</v>
+        <v>50746</v>
       </c>
       <c r="K12" s="13">
-        <v>50746</v>
+        <v>54310</v>
       </c>
       <c r="L12" s="13">
-        <v>54310</v>
+        <v>58307</v>
       </c>
       <c r="M12" s="13">
-        <v>58307</v>
+        <v>62038</v>
       </c>
       <c r="N12" s="13">
-        <v>62038</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>66601</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>25769</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>18</v>
+        <v>20213</v>
+      </c>
+      <c r="F13" s="11">
+        <v>19469</v>
       </c>
       <c r="G13" s="11">
-        <v>19469</v>
+        <v>18333</v>
       </c>
       <c r="H13" s="11">
-        <v>18333</v>
+        <v>20982</v>
       </c>
       <c r="I13" s="11">
-        <v>20982</v>
+        <v>20157</v>
       </c>
       <c r="J13" s="11">
-        <v>20157</v>
+        <v>23011</v>
       </c>
       <c r="K13" s="11">
-        <v>23011</v>
+        <v>21614</v>
       </c>
       <c r="L13" s="11">
-        <v>21614</v>
+        <v>25592</v>
       </c>
       <c r="M13" s="11">
-        <v>25592</v>
+        <v>29583</v>
       </c>
       <c r="N13" s="11">
-        <v>29583</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>28985</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>20811</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>18</v>
+        <v>14837</v>
+      </c>
+      <c r="F14" s="13">
+        <v>12917</v>
       </c>
       <c r="G14" s="13">
-        <v>12917</v>
+        <v>13765</v>
       </c>
       <c r="H14" s="13">
-        <v>13765</v>
+        <v>11288</v>
       </c>
       <c r="I14" s="13">
-        <v>11288</v>
+        <v>4761</v>
       </c>
       <c r="J14" s="13">
-        <v>4761</v>
+        <v>9072</v>
       </c>
       <c r="K14" s="13">
-        <v>9072</v>
+        <v>12338</v>
       </c>
       <c r="L14" s="13">
-        <v>12338</v>
+        <v>9769</v>
       </c>
       <c r="M14" s="13">
-        <v>9769</v>
+        <v>9506</v>
       </c>
       <c r="N14" s="13">
-        <v>9506</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7007</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15">
-        <v>99708</v>
+        <v>93412</v>
       </c>
       <c r="F15" s="15">
-        <v>0</v>
+        <v>107363</v>
       </c>
       <c r="G15" s="15">
-        <v>107363</v>
+        <v>86696</v>
       </c>
       <c r="H15" s="15">
-        <v>86696</v>
+        <v>95274</v>
       </c>
       <c r="I15" s="15">
-        <v>95274</v>
+        <v>85515</v>
       </c>
       <c r="J15" s="15">
-        <v>85515</v>
+        <v>85351</v>
       </c>
       <c r="K15" s="15">
-        <v>85351</v>
+        <v>90466</v>
       </c>
       <c r="L15" s="15">
-        <v>90466</v>
+        <v>96739</v>
       </c>
       <c r="M15" s="15">
-        <v>96739</v>
+        <v>105403</v>
       </c>
       <c r="N15" s="15">
-        <v>105403</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>106685</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1061,124 +1061,124 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>199586</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>18</v>
+        <v>172492</v>
+      </c>
+      <c r="F17" s="11">
+        <v>142848</v>
       </c>
       <c r="G17" s="11">
-        <v>142848</v>
+        <v>113695</v>
       </c>
       <c r="H17" s="11">
-        <v>113695</v>
+        <v>164042</v>
       </c>
       <c r="I17" s="11">
-        <v>164042</v>
+        <v>171867</v>
       </c>
       <c r="J17" s="11">
-        <v>171867</v>
+        <v>158167</v>
       </c>
       <c r="K17" s="11">
-        <v>158167</v>
+        <v>141556</v>
       </c>
       <c r="L17" s="11">
-        <v>141556</v>
+        <v>229957</v>
       </c>
       <c r="M17" s="11">
-        <v>229957</v>
+        <v>71291</v>
       </c>
       <c r="N17" s="11">
-        <v>71291</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>115731</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
-        <v>12343</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>18</v>
+        <v>19386</v>
+      </c>
+      <c r="F18" s="13">
+        <v>22010</v>
       </c>
       <c r="G18" s="13">
-        <v>22010</v>
+        <v>17164</v>
       </c>
       <c r="H18" s="13">
-        <v>17164</v>
+        <v>13714</v>
       </c>
       <c r="I18" s="13">
-        <v>13714</v>
+        <v>14742</v>
       </c>
       <c r="J18" s="13">
-        <v>14742</v>
+        <v>11281</v>
       </c>
       <c r="K18" s="13">
-        <v>11281</v>
+        <v>8156</v>
       </c>
       <c r="L18" s="13">
-        <v>8156</v>
+        <v>1228</v>
       </c>
       <c r="M18" s="13">
-        <v>1228</v>
+        <v>171</v>
       </c>
       <c r="N18" s="13">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>15862</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15">
-        <v>211929</v>
+        <v>191878</v>
       </c>
       <c r="F19" s="15">
-        <v>0</v>
+        <v>164858</v>
       </c>
       <c r="G19" s="15">
-        <v>164858</v>
+        <v>130859</v>
       </c>
       <c r="H19" s="15">
-        <v>130859</v>
+        <v>177756</v>
       </c>
       <c r="I19" s="15">
-        <v>177756</v>
+        <v>186609</v>
       </c>
       <c r="J19" s="15">
-        <v>186609</v>
+        <v>169448</v>
       </c>
       <c r="K19" s="15">
-        <v>169448</v>
+        <v>149712</v>
       </c>
       <c r="L19" s="15">
-        <v>149712</v>
+        <v>231185</v>
       </c>
       <c r="M19" s="15">
-        <v>231185</v>
+        <v>71462</v>
       </c>
       <c r="N19" s="15">
-        <v>71462</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>131593</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -1193,9 +1193,9 @@
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -1230,46 +1230,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>27</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>28</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19">
         <v>0</v>
       </c>
-      <c r="F22" s="19" t="s">
-        <v>18</v>
+      <c r="F22" s="19">
+        <v>0</v>
       </c>
       <c r="G22" s="19">
         <v>0</v>
       </c>
-      <c r="H22" s="19">
-        <v>0</v>
+      <c r="H22" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N22" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>29</v>
       </c>
@@ -1278,8 +1278,8 @@
       <c r="E23" s="15">
         <v>0</v>
       </c>
-      <c r="F23" s="15" t="s">
-        <v>18</v>
+      <c r="F23" s="15">
+        <v>0</v>
       </c>
       <c r="G23" s="15">
         <v>0</v>
@@ -1306,44 +1306,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19">
-        <v>311637</v>
+        <v>285290</v>
       </c>
       <c r="F24" s="19">
-        <v>0</v>
+        <v>272221</v>
       </c>
       <c r="G24" s="19">
-        <v>272221</v>
+        <v>217555</v>
       </c>
       <c r="H24" s="19">
-        <v>217555</v>
+        <v>273030</v>
       </c>
       <c r="I24" s="19">
-        <v>273030</v>
+        <v>272124</v>
       </c>
       <c r="J24" s="19">
-        <v>272124</v>
+        <v>254799</v>
       </c>
       <c r="K24" s="19">
-        <v>254799</v>
+        <v>240178</v>
       </c>
       <c r="L24" s="19">
-        <v>240178</v>
+        <v>327924</v>
       </c>
       <c r="M24" s="19">
-        <v>327924</v>
+        <v>176865</v>
       </c>
       <c r="N24" s="19">
-        <v>176865</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+        <v>238278</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1358,7 +1358,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1373,7 +1373,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1388,7 +1388,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>31</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1440,7 +1440,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>32</v>
       </c>
@@ -1457,7 +1457,7 @@
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -1466,191 +1466,191 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
-        <v>111921</v>
-      </c>
-      <c r="F31" s="11" t="s">
+        <v>102703</v>
+      </c>
+      <c r="F31" s="11">
+        <v>170582</v>
+      </c>
+      <c r="G31" s="11">
+        <v>100805</v>
+      </c>
+      <c r="H31" s="11">
+        <v>235774</v>
+      </c>
+      <c r="I31" s="11">
+        <v>114425</v>
+      </c>
+      <c r="J31" s="11">
+        <v>602825</v>
+      </c>
+      <c r="K31" s="11">
+        <v>147093</v>
+      </c>
+      <c r="L31" s="11">
+        <v>623396</v>
+      </c>
+      <c r="M31" s="11">
+        <v>375916</v>
+      </c>
+      <c r="N31" s="11">
+        <v>501518</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="12" t="s">
         <v>18</v>
-      </c>
-      <c r="G31" s="11">
-        <v>170582</v>
-      </c>
-      <c r="H31" s="11">
-        <v>100805</v>
-      </c>
-      <c r="I31" s="11">
-        <v>235774</v>
-      </c>
-      <c r="J31" s="11">
-        <v>114425</v>
-      </c>
-      <c r="K31" s="11">
-        <v>602825</v>
-      </c>
-      <c r="L31" s="11">
-        <v>147093</v>
-      </c>
-      <c r="M31" s="11">
-        <v>623396</v>
-      </c>
-      <c r="N31" s="11">
-        <v>375916</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
-        <v>19</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
-        <v>1461598</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>18</v>
+        <v>3073588</v>
+      </c>
+      <c r="F32" s="13">
+        <v>5111165</v>
       </c>
       <c r="G32" s="13">
-        <v>5111165</v>
+        <v>3199045</v>
       </c>
       <c r="H32" s="13">
-        <v>3199045</v>
+        <v>4271800</v>
       </c>
       <c r="I32" s="13">
-        <v>4271800</v>
+        <v>5086227</v>
       </c>
       <c r="J32" s="13">
-        <v>5086227</v>
+        <v>4222304</v>
       </c>
       <c r="K32" s="13">
-        <v>4222304</v>
+        <v>4463734</v>
       </c>
       <c r="L32" s="13">
-        <v>4463734</v>
+        <v>4165785</v>
       </c>
       <c r="M32" s="13">
-        <v>4165785</v>
+        <v>4577268</v>
       </c>
       <c r="N32" s="13">
-        <v>4577268</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5422022</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>1666780</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>18</v>
+        <v>1842951</v>
+      </c>
+      <c r="F33" s="11">
+        <v>2854606</v>
       </c>
       <c r="G33" s="11">
-        <v>2854606</v>
+        <v>4016647</v>
       </c>
       <c r="H33" s="11">
-        <v>4016647</v>
+        <v>4242577</v>
       </c>
       <c r="I33" s="11">
-        <v>4242577</v>
+        <v>4790980</v>
       </c>
       <c r="J33" s="11">
-        <v>4790980</v>
+        <v>4438421</v>
       </c>
       <c r="K33" s="11">
-        <v>4438421</v>
+        <v>3377896</v>
       </c>
       <c r="L33" s="11">
-        <v>3377896</v>
+        <v>3538197</v>
       </c>
       <c r="M33" s="11">
-        <v>3538197</v>
+        <v>3319244</v>
       </c>
       <c r="N33" s="11">
-        <v>3319244</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3152118</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>107545</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>18</v>
+        <v>84927</v>
+      </c>
+      <c r="F34" s="13">
+        <v>91228</v>
       </c>
       <c r="G34" s="13">
-        <v>91228</v>
+        <v>91777</v>
       </c>
       <c r="H34" s="13">
-        <v>91777</v>
+        <v>80714</v>
       </c>
       <c r="I34" s="13">
-        <v>80714</v>
+        <v>59014</v>
       </c>
       <c r="J34" s="13">
-        <v>59014</v>
+        <v>116749</v>
       </c>
       <c r="K34" s="13">
-        <v>116749</v>
+        <v>85883</v>
       </c>
       <c r="L34" s="13">
-        <v>85883</v>
+        <v>85031</v>
       </c>
       <c r="M34" s="13">
-        <v>85031</v>
+        <v>87804</v>
       </c>
       <c r="N34" s="13">
-        <v>87804</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>59557</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15">
-        <v>3347844</v>
+        <v>5104169</v>
       </c>
       <c r="F35" s="15">
-        <v>0</v>
+        <v>8227581</v>
       </c>
       <c r="G35" s="15">
-        <v>8227581</v>
+        <v>7408274</v>
       </c>
       <c r="H35" s="15">
-        <v>7408274</v>
+        <v>8830865</v>
       </c>
       <c r="I35" s="15">
-        <v>8830865</v>
+        <v>10050646</v>
       </c>
       <c r="J35" s="15">
-        <v>10050646</v>
+        <v>9380299</v>
       </c>
       <c r="K35" s="15">
-        <v>9380299</v>
+        <v>8074606</v>
       </c>
       <c r="L35" s="15">
-        <v>8074606</v>
+        <v>8412409</v>
       </c>
       <c r="M35" s="15">
-        <v>8412409</v>
+        <v>8360232</v>
       </c>
       <c r="N35" s="15">
-        <v>8360232</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9135215</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>34</v>
       </c>
@@ -1667,122 +1667,122 @@
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
-        <v>6466428</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>18</v>
+        <v>10200330</v>
+      </c>
+      <c r="F37" s="11">
+        <v>10683418</v>
       </c>
       <c r="G37" s="11">
-        <v>10683418</v>
+        <v>7902152</v>
       </c>
       <c r="H37" s="11">
-        <v>7902152</v>
+        <v>11661422</v>
       </c>
       <c r="I37" s="11">
-        <v>11661422</v>
+        <v>15046895</v>
       </c>
       <c r="J37" s="11">
-        <v>15046895</v>
+        <v>12701879</v>
       </c>
       <c r="K37" s="11">
-        <v>12701879</v>
+        <v>11785846</v>
       </c>
       <c r="L37" s="11">
-        <v>11785846</v>
+        <v>15803095</v>
       </c>
       <c r="M37" s="11">
-        <v>15803095</v>
+        <v>5863967</v>
       </c>
       <c r="N37" s="11">
-        <v>5863967</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12002798</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13">
-        <v>444281</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>18</v>
+        <v>1265445</v>
+      </c>
+      <c r="F38" s="13">
+        <v>3089892</v>
       </c>
       <c r="G38" s="13">
-        <v>3089892</v>
+        <v>3005658</v>
       </c>
       <c r="H38" s="13">
-        <v>3005658</v>
+        <v>2556644</v>
       </c>
       <c r="I38" s="13">
-        <v>2556644</v>
+        <v>3475182</v>
       </c>
       <c r="J38" s="13">
-        <v>3475182</v>
+        <v>1978773</v>
       </c>
       <c r="K38" s="13">
-        <v>1978773</v>
+        <v>1165182</v>
       </c>
       <c r="L38" s="13">
-        <v>1165182</v>
+        <v>217639</v>
       </c>
       <c r="M38" s="13">
-        <v>217639</v>
+        <v>38059</v>
       </c>
       <c r="N38" s="13">
-        <v>38059</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2037375</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
-        <v>6910709</v>
+        <v>11465775</v>
       </c>
       <c r="F39" s="15">
-        <v>0</v>
+        <v>13773310</v>
       </c>
       <c r="G39" s="15">
-        <v>13773310</v>
+        <v>10907810</v>
       </c>
       <c r="H39" s="15">
-        <v>10907810</v>
+        <v>14218066</v>
       </c>
       <c r="I39" s="15">
-        <v>14218066</v>
+        <v>18522077</v>
       </c>
       <c r="J39" s="15">
-        <v>18522077</v>
+        <v>14680652</v>
       </c>
       <c r="K39" s="15">
-        <v>14680652</v>
+        <v>12951028</v>
       </c>
       <c r="L39" s="15">
-        <v>12951028</v>
+        <v>16020734</v>
       </c>
       <c r="M39" s="15">
-        <v>16020734</v>
+        <v>5902026</v>
       </c>
       <c r="N39" s="15">
-        <v>5902026</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14040173</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="16" t="s">
         <v>35</v>
       </c>
@@ -1799,9 +1799,9 @@
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
@@ -1836,9 +1836,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>33</v>
@@ -1847,35 +1847,35 @@
       <c r="E42" s="19">
         <v>0</v>
       </c>
-      <c r="F42" s="19" t="s">
-        <v>18</v>
+      <c r="F42" s="19">
+        <v>0</v>
       </c>
       <c r="G42" s="19">
         <v>0</v>
       </c>
-      <c r="H42" s="19">
-        <v>0</v>
+      <c r="H42" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="I42" s="19" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L42" s="19" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M42" s="19" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N42" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>29</v>
       </c>
@@ -1886,8 +1886,8 @@
       <c r="E43" s="15">
         <v>0</v>
       </c>
-      <c r="F43" s="15" t="s">
-        <v>18</v>
+      <c r="F43" s="15">
+        <v>0</v>
       </c>
       <c r="G43" s="15">
         <v>0</v>
@@ -1914,44 +1914,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19">
-        <v>10258553</v>
+        <v>16569944</v>
       </c>
       <c r="F44" s="19">
-        <v>0</v>
+        <v>22000891</v>
       </c>
       <c r="G44" s="19">
-        <v>22000891</v>
+        <v>18316084</v>
       </c>
       <c r="H44" s="19">
-        <v>18316084</v>
+        <v>23048931</v>
       </c>
       <c r="I44" s="19">
-        <v>23048931</v>
+        <v>28572723</v>
       </c>
       <c r="J44" s="19">
-        <v>28572723</v>
+        <v>24060951</v>
       </c>
       <c r="K44" s="19">
-        <v>24060951</v>
+        <v>21025634</v>
       </c>
       <c r="L44" s="19">
-        <v>21025634</v>
+        <v>24433143</v>
       </c>
       <c r="M44" s="19">
-        <v>24433143</v>
+        <v>14262258</v>
       </c>
       <c r="N44" s="19">
-        <v>14262258</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>23175388</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1966,7 +1966,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1981,7 +1981,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1996,7 +1996,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>36</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2048,7 +2048,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>37</v>
       </c>
@@ -2065,7 +2065,7 @@
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>16</v>
       </c>
@@ -2074,154 +2074,154 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>26003950</v>
-      </c>
-      <c r="F51" s="11" t="s">
+        <v>22873719</v>
+      </c>
+      <c r="F51" s="11">
+        <v>33665285</v>
+      </c>
+      <c r="G51" s="11">
+        <v>25787925</v>
+      </c>
+      <c r="H51" s="11">
+        <v>54894994</v>
+      </c>
+      <c r="I51" s="11">
+        <v>30424089</v>
+      </c>
+      <c r="J51" s="11">
+        <v>239026566</v>
+      </c>
+      <c r="K51" s="11">
+        <v>66739111</v>
+      </c>
+      <c r="L51" s="11">
+        <v>202994464</v>
+      </c>
+      <c r="M51" s="11">
+        <v>87913003</v>
+      </c>
+      <c r="N51" s="11">
+        <v>122560606</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B52" s="12" t="s">
         <v>18</v>
-      </c>
-      <c r="G51" s="11">
-        <v>33665285</v>
-      </c>
-      <c r="H51" s="11">
-        <v>25787925</v>
-      </c>
-      <c r="I51" s="11">
-        <v>54894994</v>
-      </c>
-      <c r="J51" s="11">
-        <v>30424089</v>
-      </c>
-      <c r="K51" s="11">
-        <v>239026566</v>
-      </c>
-      <c r="L51" s="11">
-        <v>66739111</v>
-      </c>
-      <c r="M51" s="11">
-        <v>202994464</v>
-      </c>
-      <c r="N51" s="11">
-        <v>87913003</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B52" s="12" t="s">
-        <v>19</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13">
-        <v>29936056</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>18</v>
+        <v>57053534</v>
+      </c>
+      <c r="F52" s="13">
+        <v>73110642</v>
       </c>
       <c r="G52" s="13">
-        <v>73110642</v>
+        <v>63111227</v>
       </c>
       <c r="H52" s="13">
-        <v>63111227</v>
+        <v>72762268</v>
       </c>
       <c r="I52" s="13">
-        <v>72762268</v>
+        <v>89489531</v>
       </c>
       <c r="J52" s="13">
-        <v>89489531</v>
+        <v>83204666</v>
       </c>
       <c r="K52" s="13">
-        <v>83204666</v>
+        <v>82189910</v>
       </c>
       <c r="L52" s="13">
-        <v>82189910</v>
+        <v>71445710</v>
       </c>
       <c r="M52" s="13">
-        <v>71445710</v>
+        <v>73781682</v>
       </c>
       <c r="N52" s="13">
-        <v>73781682</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+        <v>81410519</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>64681594</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>18</v>
+        <v>91176520</v>
+      </c>
+      <c r="F53" s="11">
+        <v>146623144</v>
       </c>
       <c r="G53" s="11">
-        <v>146623144</v>
+        <v>219093820</v>
       </c>
       <c r="H53" s="11">
-        <v>219093820</v>
+        <v>202200791</v>
       </c>
       <c r="I53" s="11">
-        <v>202200791</v>
+        <v>237683187</v>
       </c>
       <c r="J53" s="11">
-        <v>237683187</v>
+        <v>192882578</v>
       </c>
       <c r="K53" s="11">
-        <v>192882578</v>
+        <v>156282780</v>
       </c>
       <c r="L53" s="11">
-        <v>156282780</v>
+        <v>138254025</v>
       </c>
       <c r="M53" s="11">
-        <v>138254025</v>
+        <v>112201061</v>
       </c>
       <c r="N53" s="11">
-        <v>112201061</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+        <v>108749974</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13">
-        <v>5167700</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>18</v>
+        <v>5724001</v>
+      </c>
+      <c r="F54" s="13">
+        <v>7062631</v>
       </c>
       <c r="G54" s="13">
-        <v>7062631</v>
+        <v>6667417</v>
       </c>
       <c r="H54" s="13">
-        <v>6667417</v>
+        <v>7150425</v>
       </c>
       <c r="I54" s="13">
-        <v>7150425</v>
+        <v>12395295</v>
       </c>
       <c r="J54" s="13">
-        <v>12395295</v>
+        <v>12869158</v>
       </c>
       <c r="K54" s="13">
-        <v>12869158</v>
+        <v>6960853</v>
       </c>
       <c r="L54" s="13">
-        <v>6960853</v>
+        <v>8704166</v>
       </c>
       <c r="M54" s="13">
-        <v>8704166</v>
+        <v>9236693</v>
       </c>
       <c r="N54" s="13">
-        <v>9236693</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8499643</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>39</v>
       </c>
@@ -2238,85 +2238,85 @@
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>32399206</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>18</v>
+        <v>59135090</v>
+      </c>
+      <c r="F56" s="11">
+        <v>74788712</v>
       </c>
       <c r="G56" s="11">
-        <v>74788712</v>
+        <v>69503074</v>
       </c>
       <c r="H56" s="11">
-        <v>69503074</v>
+        <v>71088026</v>
       </c>
       <c r="I56" s="11">
-        <v>71088026</v>
+        <v>87549646</v>
       </c>
       <c r="J56" s="11">
-        <v>87549646</v>
+        <v>80306758</v>
       </c>
       <c r="K56" s="11">
-        <v>80306758</v>
+        <v>83259247</v>
       </c>
       <c r="L56" s="11">
-        <v>83259247</v>
+        <v>68721957</v>
       </c>
       <c r="M56" s="11">
-        <v>68721957</v>
+        <v>82253959</v>
       </c>
       <c r="N56" s="11">
-        <v>82253959</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>103712903</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13">
-        <v>35994572</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>18</v>
+        <v>65276230</v>
+      </c>
+      <c r="F57" s="13">
+        <v>140385825</v>
       </c>
       <c r="G57" s="13">
-        <v>140385825</v>
+        <v>175114076</v>
       </c>
       <c r="H57" s="13">
-        <v>175114076</v>
+        <v>186425842</v>
       </c>
       <c r="I57" s="13">
-        <v>186425842</v>
+        <v>235733415</v>
       </c>
       <c r="J57" s="13">
-        <v>235733415</v>
+        <v>175407588</v>
       </c>
       <c r="K57" s="13">
-        <v>175407588</v>
+        <v>142861942</v>
       </c>
       <c r="L57" s="13">
-        <v>142861942</v>
+        <v>177230456</v>
       </c>
       <c r="M57" s="13">
-        <v>177230456</v>
+        <v>222567251</v>
       </c>
       <c r="N57" s="13">
-        <v>222567251</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>128443765</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2331,7 +2331,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2346,7 +2346,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2361,7 +2361,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>40</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2413,7 +2413,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>41</v>
       </c>
@@ -2430,7 +2430,7 @@
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>16</v>
       </c>
@@ -2439,191 +2439,191 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>-64257</v>
-      </c>
-      <c r="F64" s="11" t="s">
+        <v>-282553</v>
+      </c>
+      <c r="F64" s="11">
+        <v>-174124</v>
+      </c>
+      <c r="G64" s="11">
+        <v>-151207</v>
+      </c>
+      <c r="H64" s="11">
+        <v>-195713</v>
+      </c>
+      <c r="I64" s="11">
+        <v>-638823</v>
+      </c>
+      <c r="J64" s="11">
+        <v>-380047</v>
+      </c>
+      <c r="K64" s="11">
+        <v>-209529</v>
+      </c>
+      <c r="L64" s="11">
+        <v>-227038</v>
+      </c>
+      <c r="M64" s="11">
+        <v>-314558</v>
+      </c>
+      <c r="N64" s="11">
+        <v>-314572</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B65" s="12" t="s">
         <v>18</v>
-      </c>
-      <c r="G64" s="11">
-        <v>-456677</v>
-      </c>
-      <c r="H64" s="11">
-        <v>-151207</v>
-      </c>
-      <c r="I64" s="11">
-        <v>-195713</v>
-      </c>
-      <c r="J64" s="11">
-        <v>-638823</v>
-      </c>
-      <c r="K64" s="11">
-        <v>-380047</v>
-      </c>
-      <c r="L64" s="11">
-        <v>-209529</v>
-      </c>
-      <c r="M64" s="11">
-        <v>-227038</v>
-      </c>
-      <c r="N64" s="11">
-        <v>-314558</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B65" s="12" t="s">
-        <v>19</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>-589280</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>18</v>
+        <v>-2361287</v>
+      </c>
+      <c r="F65" s="13">
+        <v>-2147480</v>
       </c>
       <c r="G65" s="13">
-        <v>-4508767</v>
+        <v>-1106475</v>
       </c>
       <c r="H65" s="13">
-        <v>-1106475</v>
+        <v>-2066417</v>
       </c>
       <c r="I65" s="13">
-        <v>-2066417</v>
+        <v>-6471134</v>
       </c>
       <c r="J65" s="13">
-        <v>-6471134</v>
+        <v>-5097449</v>
       </c>
       <c r="K65" s="13">
-        <v>-5097449</v>
+        <v>-2935620</v>
       </c>
       <c r="L65" s="13">
-        <v>-2935620</v>
+        <v>-3654622</v>
       </c>
       <c r="M65" s="13">
-        <v>-3654622</v>
+        <v>-3068620</v>
       </c>
       <c r="N65" s="13">
-        <v>-3068620</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-3594978</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
-        <v>-586086</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>18</v>
+        <v>-2385244</v>
+      </c>
+      <c r="F66" s="11">
+        <v>-577130</v>
       </c>
       <c r="G66" s="11">
-        <v>-2962374</v>
+        <v>-1009329</v>
       </c>
       <c r="H66" s="11">
-        <v>-1009329</v>
+        <v>-1262852</v>
       </c>
       <c r="I66" s="11">
-        <v>-1262852</v>
+        <v>-4316034</v>
       </c>
       <c r="J66" s="11">
-        <v>-4316034</v>
+        <v>-3707563</v>
       </c>
       <c r="K66" s="11">
-        <v>-3707563</v>
+        <v>-2518740</v>
       </c>
       <c r="L66" s="11">
-        <v>-2518740</v>
+        <v>-3176440</v>
       </c>
       <c r="M66" s="11">
-        <v>-3176440</v>
+        <v>-3500857</v>
       </c>
       <c r="N66" s="11">
-        <v>-3500857</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-3293014</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="13">
-        <v>-64792</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>18</v>
+        <v>-192029</v>
+      </c>
+      <c r="F67" s="13">
+        <v>-49926</v>
       </c>
       <c r="G67" s="13">
-        <v>-241955</v>
+        <v>-47710</v>
       </c>
       <c r="H67" s="13">
-        <v>-47710</v>
+        <v>-44629</v>
       </c>
       <c r="I67" s="13">
-        <v>-44629</v>
+        <v>-127674</v>
       </c>
       <c r="J67" s="13">
-        <v>-127674</v>
+        <v>-121320</v>
       </c>
       <c r="K67" s="13">
-        <v>-121320</v>
+        <v>-57483</v>
       </c>
       <c r="L67" s="13">
-        <v>-57483</v>
+        <v>-70298</v>
       </c>
       <c r="M67" s="13">
-        <v>-70298</v>
+        <v>-67580</v>
       </c>
       <c r="N67" s="13">
-        <v>-67580</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1868</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
       <c r="E68" s="15">
-        <v>-1304415</v>
+        <v>-5221113</v>
       </c>
       <c r="F68" s="15">
-        <v>0</v>
+        <v>-2948660</v>
       </c>
       <c r="G68" s="15">
-        <v>-8169773</v>
+        <v>-2314721</v>
       </c>
       <c r="H68" s="15">
-        <v>-2314721</v>
+        <v>-3569611</v>
       </c>
       <c r="I68" s="15">
-        <v>-3569611</v>
+        <v>-11553665</v>
       </c>
       <c r="J68" s="15">
-        <v>-11553665</v>
+        <v>-9306379</v>
       </c>
       <c r="K68" s="15">
-        <v>-9306379</v>
+        <v>-5721372</v>
       </c>
       <c r="L68" s="15">
-        <v>-5721372</v>
+        <v>-7128398</v>
       </c>
       <c r="M68" s="15">
-        <v>-7128398</v>
+        <v>-6951615</v>
       </c>
       <c r="N68" s="15">
-        <v>-6951615</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-7204432</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>43</v>
       </c>
@@ -2640,122 +2640,122 @@
       <c r="M69" s="9"/>
       <c r="N69" s="9"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
-        <v>-2293609</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>18</v>
+        <v>-8300402</v>
+      </c>
+      <c r="F70" s="11">
+        <v>-4648347</v>
       </c>
       <c r="G70" s="11">
-        <v>-12948749</v>
+        <v>-2481799</v>
       </c>
       <c r="H70" s="11">
-        <v>-2481799</v>
+        <v>-5573435</v>
       </c>
       <c r="I70" s="11">
-        <v>-5573435</v>
+        <v>-17502191</v>
       </c>
       <c r="J70" s="11">
-        <v>-17502191</v>
+        <v>-14901850</v>
       </c>
       <c r="K70" s="11">
-        <v>-14901850</v>
+        <v>-7651525</v>
       </c>
       <c r="L70" s="11">
-        <v>-7651525</v>
+        <v>-14089026</v>
       </c>
       <c r="M70" s="11">
-        <v>-14089026</v>
+        <v>-2747588</v>
       </c>
       <c r="N70" s="11">
-        <v>-2747588</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-6196007</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="13">
-        <v>-281918</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>18</v>
+        <v>-1279365</v>
+      </c>
+      <c r="F71" s="13">
+        <v>-1422512</v>
       </c>
       <c r="G71" s="13">
-        <v>-2701877</v>
+        <v>-944983</v>
       </c>
       <c r="H71" s="13">
-        <v>-944983</v>
+        <v>-839609</v>
       </c>
       <c r="I71" s="13">
-        <v>-839609</v>
+        <v>-3310770</v>
       </c>
       <c r="J71" s="13">
-        <v>-3310770</v>
+        <v>-2224330</v>
       </c>
       <c r="K71" s="13">
-        <v>-2224330</v>
+        <v>-950479</v>
       </c>
       <c r="L71" s="13">
-        <v>-950479</v>
+        <v>-181711</v>
       </c>
       <c r="M71" s="13">
-        <v>-181711</v>
+        <v>-12084</v>
       </c>
       <c r="N71" s="13">
-        <v>-12084</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1856736</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15">
-        <v>-2575527</v>
+        <v>-9579767</v>
       </c>
       <c r="F72" s="15">
-        <v>0</v>
+        <v>-6070859</v>
       </c>
       <c r="G72" s="15">
-        <v>-15650626</v>
+        <v>-3426782</v>
       </c>
       <c r="H72" s="15">
-        <v>-3426782</v>
+        <v>-6413044</v>
       </c>
       <c r="I72" s="15">
-        <v>-6413044</v>
+        <v>-20812961</v>
       </c>
       <c r="J72" s="15">
-        <v>-20812961</v>
+        <v>-17126180</v>
       </c>
       <c r="K72" s="15">
-        <v>-17126180</v>
+        <v>-8602004</v>
       </c>
       <c r="L72" s="15">
-        <v>-8602004</v>
+        <v>-14270737</v>
       </c>
       <c r="M72" s="15">
-        <v>-14270737</v>
+        <v>-2759672</v>
       </c>
       <c r="N72" s="15">
-        <v>-2759672</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-8052743</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="16" t="s">
         <v>45</v>
       </c>
@@ -2772,7 +2772,7 @@
       <c r="M73" s="17"/>
       <c r="N73" s="17"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="14" t="s">
         <v>46</v>
       </c>
@@ -2809,9 +2809,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C75" s="19" t="s">
         <v>33</v>
@@ -2820,35 +2820,35 @@
       <c r="E75" s="19">
         <v>0</v>
       </c>
-      <c r="F75" s="19" t="s">
-        <v>18</v>
+      <c r="F75" s="19">
+        <v>0</v>
       </c>
       <c r="G75" s="19">
         <v>0</v>
       </c>
-      <c r="H75" s="19">
-        <v>0</v>
+      <c r="H75" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="I75" s="19" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J75" s="19" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K75" s="19" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L75" s="19" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M75" s="19" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N75" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="14" t="s">
         <v>29</v>
       </c>
@@ -2859,8 +2859,8 @@
       <c r="E76" s="15">
         <v>0</v>
       </c>
-      <c r="F76" s="15" t="s">
-        <v>18</v>
+      <c r="F76" s="15">
+        <v>0</v>
       </c>
       <c r="G76" s="15">
         <v>0</v>
@@ -2887,44 +2887,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C77" s="19"/>
       <c r="D77" s="19"/>
       <c r="E77" s="19">
-        <v>-3879942</v>
+        <v>-14800880</v>
       </c>
       <c r="F77" s="19">
-        <v>0</v>
+        <v>-9019519</v>
       </c>
       <c r="G77" s="19">
-        <v>-23820399</v>
+        <v>-5741503</v>
       </c>
       <c r="H77" s="19">
-        <v>-5741503</v>
+        <v>-9982655</v>
       </c>
       <c r="I77" s="19">
-        <v>-9982655</v>
+        <v>-32366626</v>
       </c>
       <c r="J77" s="19">
-        <v>-32366626</v>
+        <v>-26432559</v>
       </c>
       <c r="K77" s="19">
-        <v>-26432559</v>
+        <v>-14323376</v>
       </c>
       <c r="L77" s="19">
-        <v>-14323376</v>
+        <v>-21399135</v>
       </c>
       <c r="M77" s="19">
-        <v>-21399135</v>
+        <v>-9711287</v>
       </c>
       <c r="N77" s="19">
-        <v>-9711287</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-15257175</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2939,7 +2939,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2954,7 +2954,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2969,7 +2969,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
         <v>47</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3021,7 +3021,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>48</v>
       </c>
@@ -3038,7 +3038,7 @@
       <c r="M83" s="9"/>
       <c r="N83" s="9"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>16</v>
       </c>
@@ -3047,191 +3047,191 @@
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>47664</v>
-      </c>
-      <c r="F84" s="11" t="s">
+        <v>41355</v>
+      </c>
+      <c r="F84" s="11">
+        <v>-3542</v>
+      </c>
+      <c r="G84" s="11">
+        <v>-50402</v>
+      </c>
+      <c r="H84" s="11">
+        <v>40061</v>
+      </c>
+      <c r="I84" s="11">
+        <v>-187819</v>
+      </c>
+      <c r="J84" s="11">
+        <v>222778</v>
+      </c>
+      <c r="K84" s="11">
+        <v>-62436</v>
+      </c>
+      <c r="L84" s="11">
+        <v>396358</v>
+      </c>
+      <c r="M84" s="11">
+        <v>61358</v>
+      </c>
+      <c r="N84" s="11">
+        <v>186946</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B85" s="12" t="s">
         <v>18</v>
-      </c>
-      <c r="G84" s="11">
-        <v>37813</v>
-      </c>
-      <c r="H84" s="11">
-        <v>-50402</v>
-      </c>
-      <c r="I84" s="11">
-        <v>40061</v>
-      </c>
-      <c r="J84" s="11">
-        <v>-187819</v>
-      </c>
-      <c r="K84" s="11">
-        <v>222778</v>
-      </c>
-      <c r="L84" s="11">
-        <v>-62436</v>
-      </c>
-      <c r="M84" s="11">
-        <v>396358</v>
-      </c>
-      <c r="N84" s="11">
-        <v>61358</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B85" s="12" t="s">
-        <v>19</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="13">
-        <v>872318</v>
-      </c>
-      <c r="F85" s="13" t="s">
-        <v>18</v>
+        <v>3385600</v>
+      </c>
+      <c r="F85" s="13">
+        <v>2963685</v>
       </c>
       <c r="G85" s="13">
-        <v>6349285</v>
+        <v>2092570</v>
       </c>
       <c r="H85" s="13">
-        <v>2092570</v>
+        <v>2205383</v>
       </c>
       <c r="I85" s="13">
-        <v>2205383</v>
+        <v>6085938</v>
       </c>
       <c r="J85" s="13">
-        <v>6085938</v>
+        <v>-875145</v>
       </c>
       <c r="K85" s="13">
-        <v>-875145</v>
+        <v>1528114</v>
       </c>
       <c r="L85" s="13">
-        <v>1528114</v>
+        <v>511163</v>
       </c>
       <c r="M85" s="13">
-        <v>511163</v>
+        <v>1508648</v>
       </c>
       <c r="N85" s="13">
-        <v>1508648</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1827044</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
-        <v>1080694</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>18</v>
+        <v>1933099</v>
+      </c>
+      <c r="F86" s="11">
+        <v>2277476</v>
       </c>
       <c r="G86" s="11">
-        <v>4210575</v>
+        <v>3007318</v>
       </c>
       <c r="H86" s="11">
-        <v>3007318</v>
+        <v>2979725</v>
       </c>
       <c r="I86" s="11">
-        <v>2979725</v>
+        <v>8734170</v>
       </c>
       <c r="J86" s="11">
-        <v>8734170</v>
+        <v>730858</v>
       </c>
       <c r="K86" s="11">
-        <v>730858</v>
+        <v>859156</v>
       </c>
       <c r="L86" s="11">
-        <v>859156</v>
+        <v>361757</v>
       </c>
       <c r="M86" s="11">
-        <v>361757</v>
+        <v>-181613</v>
       </c>
       <c r="N86" s="11">
-        <v>-181613</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-140896</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="13">
-        <v>42753</v>
-      </c>
-      <c r="F87" s="13" t="s">
-        <v>18</v>
+        <v>110196</v>
+      </c>
+      <c r="F87" s="13">
+        <v>41302</v>
       </c>
       <c r="G87" s="13">
-        <v>151498</v>
+        <v>44067</v>
       </c>
       <c r="H87" s="13">
-        <v>44067</v>
+        <v>36085</v>
       </c>
       <c r="I87" s="13">
-        <v>36085</v>
+        <v>103831</v>
       </c>
       <c r="J87" s="13">
-        <v>103831</v>
+        <v>-4571</v>
       </c>
       <c r="K87" s="13">
-        <v>-4571</v>
+        <v>28400</v>
       </c>
       <c r="L87" s="13">
-        <v>28400</v>
+        <v>14733</v>
       </c>
       <c r="M87" s="13">
-        <v>14733</v>
+        <v>20224</v>
       </c>
       <c r="N87" s="13">
-        <v>20224</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>57689</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C88" s="15"/>
       <c r="D88" s="15"/>
       <c r="E88" s="15">
-        <v>2043429</v>
+        <v>5470250</v>
       </c>
       <c r="F88" s="15">
-        <v>0</v>
+        <v>5278921</v>
       </c>
       <c r="G88" s="15">
-        <v>10749171</v>
+        <v>5093553</v>
       </c>
       <c r="H88" s="15">
-        <v>5093553</v>
+        <v>5261254</v>
       </c>
       <c r="I88" s="15">
-        <v>5261254</v>
+        <v>14736120</v>
       </c>
       <c r="J88" s="15">
-        <v>14736120</v>
+        <v>73920</v>
       </c>
       <c r="K88" s="15">
-        <v>73920</v>
+        <v>2353234</v>
       </c>
       <c r="L88" s="15">
-        <v>2353234</v>
+        <v>1284011</v>
       </c>
       <c r="M88" s="15">
-        <v>1284011</v>
+        <v>1408617</v>
       </c>
       <c r="N88" s="15">
-        <v>1408617</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1930783</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>50</v>
       </c>
@@ -3248,122 +3248,122 @@
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
-        <v>4172819</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>18</v>
+        <v>11901071</v>
+      </c>
+      <c r="F90" s="11">
+        <v>6035071</v>
       </c>
       <c r="G90" s="11">
-        <v>17936142</v>
+        <v>5420353</v>
       </c>
       <c r="H90" s="11">
-        <v>5420353</v>
+        <v>6087987</v>
       </c>
       <c r="I90" s="11">
-        <v>6087987</v>
+        <v>17108278</v>
       </c>
       <c r="J90" s="11">
-        <v>17108278</v>
+        <v>-2199971</v>
       </c>
       <c r="K90" s="11">
-        <v>-2199971</v>
+        <v>4134321</v>
       </c>
       <c r="L90" s="11">
-        <v>4134321</v>
+        <v>1714069</v>
       </c>
       <c r="M90" s="11">
-        <v>1714069</v>
+        <v>3116379</v>
       </c>
       <c r="N90" s="11">
-        <v>3116379</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5806791</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="13">
-        <v>162363</v>
-      </c>
-      <c r="F91" s="13" t="s">
-        <v>18</v>
+        <v>1036849</v>
+      </c>
+      <c r="F91" s="13">
+        <v>1667380</v>
       </c>
       <c r="G91" s="13">
-        <v>2704229</v>
+        <v>2060675</v>
       </c>
       <c r="H91" s="13">
-        <v>2060675</v>
+        <v>1717035</v>
       </c>
       <c r="I91" s="13">
-        <v>1717035</v>
+        <v>5726714</v>
       </c>
       <c r="J91" s="13">
-        <v>5726714</v>
+        <v>-245557</v>
       </c>
       <c r="K91" s="13">
-        <v>-245557</v>
+        <v>214703</v>
       </c>
       <c r="L91" s="13">
-        <v>214703</v>
+        <v>35928</v>
       </c>
       <c r="M91" s="13">
-        <v>35928</v>
+        <v>25975</v>
       </c>
       <c r="N91" s="13">
-        <v>25975</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>180639</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15">
-        <v>4335182</v>
+        <v>12937920</v>
       </c>
       <c r="F92" s="15">
-        <v>0</v>
+        <v>7702451</v>
       </c>
       <c r="G92" s="15">
-        <v>20640371</v>
+        <v>7481028</v>
       </c>
       <c r="H92" s="15">
-        <v>7481028</v>
+        <v>7805022</v>
       </c>
       <c r="I92" s="15">
-        <v>7805022</v>
+        <v>22834992</v>
       </c>
       <c r="J92" s="15">
-        <v>22834992</v>
+        <v>-2445528</v>
       </c>
       <c r="K92" s="15">
-        <v>-2445528</v>
+        <v>4349024</v>
       </c>
       <c r="L92" s="15">
-        <v>4349024</v>
+        <v>1749997</v>
       </c>
       <c r="M92" s="15">
-        <v>1749997</v>
+        <v>3142354</v>
       </c>
       <c r="N92" s="15">
-        <v>3142354</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5987430</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="16" t="s">
         <v>52</v>
       </c>
@@ -3380,7 +3380,7 @@
       <c r="M93" s="17"/>
       <c r="N93" s="17"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="14" t="s">
         <v>53</v>
       </c>
@@ -3417,41 +3417,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C95" s="19"/>
       <c r="D95" s="19"/>
       <c r="E95" s="19">
-        <v>6378611</v>
+        <v>18408170</v>
       </c>
       <c r="F95" s="19">
-        <v>0</v>
+        <v>12981372</v>
       </c>
       <c r="G95" s="19">
-        <v>31389542</v>
+        <v>12574581</v>
       </c>
       <c r="H95" s="19">
-        <v>12574581</v>
+        <v>13066276</v>
       </c>
       <c r="I95" s="19">
-        <v>13066276</v>
+        <v>37571112</v>
       </c>
       <c r="J95" s="19">
-        <v>37571112</v>
+        <v>-2371608</v>
       </c>
       <c r="K95" s="19">
-        <v>-2371608</v>
+        <v>6702258</v>
       </c>
       <c r="L95" s="19">
-        <v>6702258</v>
+        <v>3034008</v>
       </c>
       <c r="M95" s="19">
-        <v>3034008</v>
+        <v>4550971</v>
       </c>
       <c r="N95" s="19">
-        <v>4550971</v>
+        <v>7918213</v>
       </c>
     </row>
   </sheetData>
